--- a/data/answ.xlsx
+++ b/data/answ.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17.65944444444445</v>
+        <v>9.159444444444448</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>92.6527777777778</v>
+        <v>44.24111111111113</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17.90783333333333</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>41.16666666666663</v>
+        <v>38.16666666666663</v>
       </c>
     </row>
     <row r="7">

--- a/data/answ.xlsx
+++ b/data/answ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +451,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Лазерная резка листа</t>
+          <t>Вертикально-фрезерная</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.159444444444448</v>
+        <v>192.1833333333334</v>
       </c>
     </row>
     <row r="3">
@@ -464,11 +464,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Листогибочная</t>
+          <t>Ленточно-отрезная</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>44.24111111111113</v>
+        <v>141.8333333333334</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>0.2594339622641509</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20.75</v>
+        <v>237.4833333333334</v>
       </c>
     </row>
     <row r="6">
@@ -503,24 +503,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Сварка полуавтоматом в среде защитного газа (MIG)</t>
+          <t>Токарная</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38.16666666666663</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Упаковочная</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.833333333333333</v>
+        <v>203.6666666666666</v>
       </c>
     </row>
   </sheetData>
